--- a/file_checks/wrong_genes_correct_pheno.xlsx
+++ b/file_checks/wrong_genes_correct_pheno.xlsx
@@ -1451,547 +1451,547 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.532414592354911</v>
+        <v>-0.691205210634421</v>
       </c>
       <c r="B2" t="n">
-        <v>0.523015899806065</v>
+        <v>-0.800120997990811</v>
       </c>
       <c r="C2" t="n">
-        <v>1.18528848971231</v>
+        <v>-0.222826021451839</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.26752036871853</v>
+        <v>0.375713358113935</v>
       </c>
       <c r="E2" t="n">
-        <v>0.329023752971351</v>
+        <v>-0.828341926985585</v>
       </c>
       <c r="F2" t="n">
-        <v>0.387649706595934</v>
+        <v>0.611798813951583</v>
       </c>
       <c r="G2" t="n">
-        <v>0.416581360146956</v>
+        <v>-0.0393633653344412</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.077762283057854</v>
+        <v>0.129575847754039</v>
       </c>
       <c r="I2" t="n">
-        <v>1.30422378864178</v>
+        <v>0.719109637169443</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.278490408249372</v>
+        <v>1.1187056723057</v>
       </c>
       <c r="K2" t="n">
-        <v>0.301639040027568</v>
+        <v>-0.732921605682831</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.962065518787465</v>
+        <v>-0.703008882697448</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0840048502042399</v>
+        <v>-2.13015669001189</v>
       </c>
       <c r="N2" t="n">
-        <v>1.43235964015165</v>
+        <v>0.425723127371968</v>
       </c>
       <c r="O2" t="n">
-        <v>0.740125951689599</v>
+        <v>0.344876963188079</v>
       </c>
       <c r="P2" t="n">
-        <v>0.488604867044934</v>
+        <v>0.400044441846074</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.36229157558071</v>
+        <v>0.410227298579844</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.04123569409595</v>
+        <v>1.82357234574356</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.414861931299265</v>
+        <v>0.976688926836179</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.515577453658695</v>
+        <v>-1.59864487131712</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.1797576923755</v>
+        <v>0.351708139638457</v>
       </c>
       <c r="V2" t="n">
-        <v>0.351146161197912</v>
+        <v>0.476306248003658</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.7999100206798</v>
+        <v>0.467423045893762</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.28433107848686</v>
+        <v>-0.980790339478943</v>
       </c>
       <c r="Y2" t="n">
-        <v>-2.77986827403033</v>
+        <v>-0.63593967643284</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.225086835582374</v>
+        <v>1.27847882731743</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.968964612170278</v>
+        <v>0.428512273928841</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.856319571540649</v>
+        <v>0.974761448456013</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.269295075914599</v>
+        <v>0.107007657534999</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.63849002444232</v>
+        <v>-0.321264513231053</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.32289099841752</v>
+        <v>-2.17201289723062</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.23044410522154</v>
+        <v>0.946143496239777</v>
       </c>
       <c r="AG2" t="n">
-        <v>-2.61200389209485</v>
+        <v>2.2138820182585</v>
       </c>
       <c r="AH2" t="n">
-        <v>-1.15382654365233</v>
+        <v>0.91280526649118</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.46077824044839</v>
+        <v>-0.222809463965179</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.25524121117649</v>
+        <v>-1.96705945539146</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.580710307372417</v>
+        <v>0.0535995781950112</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.45886513499902</v>
+        <v>-0.220917835013323</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.54670887388046</v>
+        <v>-0.276067809979901</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.761730500656437</v>
+        <v>0.104719605538363</v>
       </c>
       <c r="AO2" t="n">
-        <v>2.19260561305762</v>
+        <v>-0.403221127242607</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.373614344020657</v>
+        <v>0.317808774845865</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-1.14271044224618</v>
+        <v>-1.82604552744791</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.432920274382716</v>
+        <v>-1.34001871155697</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.20888328818129</v>
+        <v>0.871084676873957</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.46709144049635</v>
+        <v>-0.634916322073684</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.412957260227052</v>
+        <v>-0.515304662767703</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.50981395267403</v>
+        <v>0.226957720235912</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.563190778344169</v>
+        <v>3.68641774310915</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.394393073964818</v>
+        <v>-1.52757198584022</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.704540402631645</v>
+        <v>1.82796244712735</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.325664435443397</v>
+        <v>1.40726899738092</v>
       </c>
       <c r="BA2" t="n">
-        <v>-1.72066582135985</v>
+        <v>0.0448128646112574</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.674029355581956</v>
+        <v>0.429544786979314</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.17018808444974</v>
+        <v>-0.611724157223437</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.363972872723301</v>
+        <v>1.42112294494703</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.554419237493781</v>
+        <v>-1.00615609599131</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.546117219650278</v>
+        <v>-0.131426143033129</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.520163404815531</v>
+        <v>1.24188767049537</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.182990695352147</v>
+        <v>0.468757401353285</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.61709730893469</v>
+        <v>-1.20590407356583</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0728012802563966</v>
+        <v>-0.221318660799552</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.07068615400724</v>
+        <v>0.68883034711848</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.77970986323958</v>
+        <v>-0.21330865975571</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.205970004705444</v>
+        <v>-1.04720763780047</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.824478720735812</v>
+        <v>0.471467140717355</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0370379858842095</v>
+        <v>0.653620199581056</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.932473968539336</v>
+        <v>-0.653298520401058</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.399795312347062</v>
+        <v>-0.732308015279303</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.26400286391294</v>
+        <v>1.72647086074618</v>
       </c>
       <c r="BS2" t="n">
-        <v>-1.26111748964972</v>
+        <v>-0.860551868038685</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.335440002005209</v>
+        <v>-1.34198481617374</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.280245675698162</v>
+        <v>0.925833672689954</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.69311251762209</v>
+        <v>2.46146301242425</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.510322738586727</v>
+        <v>-1.16096591587357</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.613250316500019</v>
+        <v>1.69426029086814</v>
       </c>
       <c r="BY2" t="n">
-        <v>-1.27573995528238</v>
+        <v>-0.219784912291003</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.844405352906266</v>
+        <v>1.76666327196857</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0951263460908068</v>
+        <v>-1.90127258464398</v>
       </c>
       <c r="CB2" t="n">
-        <v>-1.24715323530507</v>
+        <v>0.347111083469032</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.04856530810429</v>
+        <v>0.170195908121347</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.951898474503365</v>
+        <v>0.442853957941017</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.816379876847938</v>
+        <v>-0.346185691061748</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.672498581664226</v>
+        <v>0.904071349713809</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.454550731394406</v>
+        <v>0.53940288458698</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.506315672320521</v>
+        <v>-0.122139969116529</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.855853687869846</v>
+        <v>0.42425700847783</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.620538601210818</v>
+        <v>-0.216807290458293</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.552974572975232</v>
+        <v>-0.994738629095373</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.792579419639286</v>
+        <v>-1.36798500942859</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0411850032244701</v>
+        <v>-1.59675049673533</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.584734252011656</v>
+        <v>-1.19475829375082</v>
       </c>
       <c r="CO2" t="n">
-        <v>-2.14560699143742</v>
+        <v>-0.494158944145958</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.186814840668251</v>
+        <v>-1.42616816151528</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-1.38994839932806</v>
+        <v>0.795643789056782</v>
       </c>
       <c r="CR2" t="n">
-        <v>1.09009739577413</v>
+        <v>0.787316129610525</v>
       </c>
       <c r="CS2" t="n">
-        <v>1.05170654620532</v>
+        <v>0.0376922242265233</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.114787399726433</v>
+        <v>0.788624296031146</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.161032368589001</v>
+        <v>-1.86992813710511</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.929244196902575</v>
+        <v>0.522248893031544</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.191352253279559</v>
+        <v>0.294351669560775</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.826605952079184</v>
+        <v>-1.15220203238337</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.13561172795448</v>
+        <v>-0.0409467406706916</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-1.42247008224778</v>
+        <v>-1.51186434365942</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.762914453432391</v>
+        <v>-0.208789040924852</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.982118047930132</v>
+        <v>-0.206231321839227</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.648666625157492</v>
+        <v>-1.4954404002293</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.13325525545421</v>
+        <v>-0.313795420895347</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.0543800974690519</v>
+        <v>1.61187462682739</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.748586814557042</v>
+        <v>-0.355938493439308</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.943040786963925</v>
+        <v>-0.338299095987042</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.462872420683914</v>
+        <v>-0.533266290408314</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.506279737924414</v>
+        <v>1.75641296123473</v>
       </c>
       <c r="DJ2" t="n">
-        <v>2.22890708870134</v>
+        <v>-0.0428114250777267</v>
       </c>
       <c r="DK2" t="n">
-        <v>1.23582878062823</v>
+        <v>0.509716318017013</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.542925732907044</v>
+        <v>-0.56165131145983</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.509001166424161</v>
+        <v>-0.227166553985611</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.710435370904526</v>
+        <v>-0.412271455365555</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.481357382703501</v>
+        <v>-0.61268977754043</v>
       </c>
       <c r="DP2" t="n">
-        <v>-1.88667644888962</v>
+        <v>2.01974841256834</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.53518403245162</v>
+        <v>1.6416875389376</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.36031651472925</v>
+        <v>1.27023746645909</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.284717410721857</v>
+        <v>0.292876752681592</v>
       </c>
       <c r="DT2" t="n">
-        <v>-1.9894949254598</v>
+        <v>2.11416084723188</v>
       </c>
       <c r="DU2" t="n">
-        <v>2.01034371505835</v>
+        <v>-0.232314683638115</v>
       </c>
       <c r="DV2" t="n">
-        <v>1.10398356085435</v>
+        <v>1.86779869927139</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.755541022054087</v>
+        <v>-1.05662466795264</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0938675942583918</v>
+        <v>3.21064650036004</v>
       </c>
       <c r="DY2" t="n">
-        <v>1.56208381057589</v>
+        <v>0.863214434568165</v>
       </c>
       <c r="DZ2" t="n">
-        <v>1.09436203161328</v>
+        <v>0.399640197972389</v>
       </c>
       <c r="EA2" t="n">
-        <v>-1.28593727006071</v>
+        <v>-0.70782339839279</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.460104852087341</v>
+        <v>-0.554226821550625</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.844849376865514</v>
+        <v>1.01730033140234</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.342187346400229</v>
+        <v>0.771347240054737</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.815859041443706</v>
+        <v>0.285404922285631</v>
       </c>
       <c r="EF2" t="n">
-        <v>1.27664798960926</v>
+        <v>0.357803171561405</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.14354927432813</v>
+        <v>-0.320352755868402</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.238090133888287</v>
+        <v>-0.887881736391562</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.283836302754211</v>
+        <v>1.30128026703737</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.42933699415966</v>
+        <v>0.556111979337062</v>
       </c>
       <c r="EK2" t="n">
-        <v>-1.14862961312653</v>
+        <v>-1.8188058808208</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.397187498293092</v>
+        <v>0.680386777766423</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.33988860946209</v>
+        <v>0.316523934363371</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.00888282985097248</v>
+        <v>0.824457674594351</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.727631420354822</v>
+        <v>0.453789642911308</v>
       </c>
       <c r="EP2" t="n">
-        <v>-2.70780837824814</v>
+        <v>0.117295510615109</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-1.3763465101114</v>
+        <v>0.277450533281245</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.501716511330516</v>
+        <v>-0.106728279402977</v>
       </c>
       <c r="ES2" t="n">
-        <v>2.12813157468083</v>
+        <v>-0.900444853792816</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.75410333914585</v>
+        <v>1.00770837196453</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.37435060748021</v>
+        <v>1.17773321099751</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.825247889928722</v>
+        <v>1.53332145089798</v>
       </c>
       <c r="EW2" t="n">
-        <v>-2.00165815271744</v>
+        <v>0.00543147009467279</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.180849417945955</v>
+        <v>-0.596562629859382</v>
       </c>
       <c r="EY2" t="n">
-        <v>-1.42831419303594</v>
+        <v>0.193247070186299</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.44392206976399</v>
+        <v>-0.779359000293127</v>
       </c>
       <c r="FA2" t="n">
-        <v>-1.32378201105707</v>
+        <v>-0.743866035810625</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.133046038222299</v>
+        <v>-0.598169028003321</v>
       </c>
       <c r="FC2" t="n">
-        <v>-1.43901333593051</v>
+        <v>0.584795465772469</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.881868928589481</v>
+        <v>0.329020522128149</v>
       </c>
       <c r="FE2" t="n">
-        <v>-1.32954562412489</v>
+        <v>-0.375061960894217</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.92779047640147</v>
+        <v>0.707704490532328</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.628084316063674</v>
+        <v>2.11172705901896</v>
       </c>
       <c r="FH2" t="n">
-        <v>-1.50184437933851</v>
+        <v>0.480165004836316</v>
       </c>
       <c r="FI2" t="n">
-        <v>-1.79502347083198</v>
+        <v>0.253065564365451</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.236993264955431</v>
+        <v>0.223418283321764</v>
       </c>
       <c r="FK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" t="n">
         <v>0</v>
       </c>
-      <c r="FL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM2" t="n">
+      <c r="FN2" t="n">
         <v>1</v>
       </c>
-      <c r="FN2" t="n">
-        <v>0</v>
-      </c>
       <c r="FO2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP2" t="n">
         <v>0</v>
       </c>
       <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
         <v>0</v>
       </c>
-      <c r="FR2" t="n">
+      <c r="FS2" t="n">
         <v>1</v>
       </c>
-      <c r="FS2" t="n">
+      <c r="FT2" t="n">
         <v>0</v>
       </c>
-      <c r="FT2" t="n">
-        <v>1</v>
-      </c>
       <c r="FU2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
         <v>0</v>
       </c>
       <c r="FW2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FX2" t="n">
         <v>0</v>
       </c>
       <c r="FY2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="GB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/file_checks/wrong_genes_correct_pheno.xlsx
+++ b/file_checks/wrong_genes_correct_pheno.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t xml:space="preserve">1</t>
   </si>
@@ -561,6 +561,15 @@
   </si>
   <si>
     <t xml:space="preserve">rorS_risk_high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER_hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER_lp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HER2_scmod1</t>
   </si>
   <si>
     <t xml:space="preserve">Endo</t>
@@ -1448,511 +1457,520 @@
       <c r="GB1" t="s">
         <v>183</v>
       </c>
+      <c r="GC1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.691205210634421</v>
+        <v>-1.09278756596076</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.800120997990811</v>
+        <v>-1.03114930204505</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.222826021451839</v>
+        <v>1.18814503860037</v>
       </c>
       <c r="D2" t="n">
-        <v>0.375713358113935</v>
+        <v>0.860013501905441</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.828341926985585</v>
+        <v>-1.72640564172528</v>
       </c>
       <c r="F2" t="n">
-        <v>0.611798813951583</v>
+        <v>-0.420068484767343</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0393633653344412</v>
+        <v>-1.04923107382406</v>
       </c>
       <c r="H2" t="n">
-        <v>0.129575847754039</v>
+        <v>0.623197675607319</v>
       </c>
       <c r="I2" t="n">
-        <v>0.719109637169443</v>
+        <v>1.11536547045629</v>
       </c>
       <c r="J2" t="n">
-        <v>1.1187056723057</v>
+        <v>-0.59470556862541</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.732921605682831</v>
+        <v>1.10793925737275</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.703008882697448</v>
+        <v>-0.576206750806436</v>
       </c>
       <c r="M2" t="n">
-        <v>-2.13015669001189</v>
+        <v>0.573069240468914</v>
       </c>
       <c r="N2" t="n">
-        <v>0.425723127371968</v>
+        <v>2.253483950511</v>
       </c>
       <c r="O2" t="n">
-        <v>0.344876963188079</v>
+        <v>-1.87790369984366</v>
       </c>
       <c r="P2" t="n">
-        <v>0.400044441846074</v>
+        <v>2.48669556417133</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.410227298579844</v>
+        <v>0.219938535230084</v>
       </c>
       <c r="R2" t="n">
-        <v>1.82357234574356</v>
+        <v>-1.77289957575232</v>
       </c>
       <c r="S2" t="n">
-        <v>0.976688926836179</v>
+        <v>-0.312875954827684</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.59864487131712</v>
+        <v>-1.84637326539643</v>
       </c>
       <c r="U2" t="n">
-        <v>0.351708139638457</v>
+        <v>0.822837327857609</v>
       </c>
       <c r="V2" t="n">
-        <v>0.476306248003658</v>
+        <v>-0.541817121210499</v>
       </c>
       <c r="W2" t="n">
-        <v>0.467423045893762</v>
+        <v>-0.72747133592263</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.980790339478943</v>
+        <v>0.251939600792465</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.63593967643284</v>
+        <v>0.255332356171896</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.27847882731743</v>
+        <v>-1.87582026720662</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.428512273928841</v>
+        <v>0.570499371547365</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.974761448456013</v>
+        <v>0.113282189547741</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.107007657534999</v>
+        <v>-0.846849679560297</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.321264513231053</v>
+        <v>0.482797323615461</v>
       </c>
       <c r="AE2" t="n">
-        <v>-2.17201289723062</v>
+        <v>-0.812494648705245</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.946143496239777</v>
+        <v>1.40330512201676</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.2138820182585</v>
+        <v>-0.614431750948864</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.91280526649118</v>
+        <v>-0.392225586351708</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.222809463965179</v>
+        <v>0.403950340979636</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-1.96705945539146</v>
+        <v>-2.39439197493722</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0535995781950112</v>
+        <v>1.30835174018119</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.220917835013323</v>
+        <v>-0.925093582237573</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.276067809979901</v>
+        <v>2.17554687039174</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.104719605538363</v>
+        <v>1.05099812483921</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.403221127242607</v>
+        <v>-0.794858031279128</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.317808774845865</v>
+        <v>0.795230478414764</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-1.82604552744791</v>
+        <v>0.63855151630473</v>
       </c>
       <c r="AR2" t="n">
-        <v>-1.34001871155697</v>
+        <v>0.657355798598447</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.871084676873957</v>
+        <v>-0.0496339604475049</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.634916322073684</v>
+        <v>0.667139314510399</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.515304662767703</v>
+        <v>0.289970880799212</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.226957720235912</v>
+        <v>1.34291479702044</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.68641774310915</v>
+        <v>0.0506639408382172</v>
       </c>
       <c r="AX2" t="n">
-        <v>-1.52757198584022</v>
+        <v>0.907313002438979</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.82796244712735</v>
+        <v>-1.44715093342302</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.40726899738092</v>
+        <v>-0.323660091291459</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0448128646112574</v>
+        <v>0.974489742768565</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.429544786979314</v>
+        <v>-1.15257911085413</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.611724157223437</v>
+        <v>-0.437331206481846</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.42112294494703</v>
+        <v>0.781667588335054</v>
       </c>
       <c r="BE2" t="n">
-        <v>-1.00615609599131</v>
+        <v>0.789572311573727</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.131426143033129</v>
+        <v>0.67205649918639</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.24188767049537</v>
+        <v>-1.68667089555936</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.468757401353285</v>
+        <v>-0.58049456257666</v>
       </c>
       <c r="BI2" t="n">
-        <v>-1.20590407356583</v>
+        <v>-0.453765859237855</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.221318660799552</v>
+        <v>1.26353810737256</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.68883034711848</v>
+        <v>-1.0417898372853</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.21330865975571</v>
+        <v>-1.58229929438874</v>
       </c>
       <c r="BM2" t="n">
-        <v>-1.04720763780047</v>
+        <v>-0.913695008266694</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.471467140717355</v>
+        <v>1.57742568983781</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.653620199581056</v>
+        <v>0.045995963143378</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.653298520401058</v>
+        <v>-0.784957388607212</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.732308015279303</v>
+        <v>0.557215341638669</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.72647086074618</v>
+        <v>1.44077411409069</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.860551868038685</v>
+        <v>-0.46933132503381</v>
       </c>
       <c r="BT2" t="n">
-        <v>-1.34198481617374</v>
+        <v>1.04893569266808</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.925833672689954</v>
+        <v>0.718624548686569</v>
       </c>
       <c r="BV2" t="n">
-        <v>2.46146301242425</v>
+        <v>1.61086016666886</v>
       </c>
       <c r="BW2" t="n">
-        <v>-1.16096591587357</v>
+        <v>1.59524582615503</v>
       </c>
       <c r="BX2" t="n">
-        <v>1.69426029086814</v>
+        <v>0.033745701612846</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.219784912291003</v>
+        <v>-0.679358366539592</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1.76666327196857</v>
+        <v>-0.16446498612395</v>
       </c>
       <c r="CA2" t="n">
-        <v>-1.90127258464398</v>
+        <v>-0.0489270149532421</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.347111083469032</v>
+        <v>-0.317816636851938</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.170195908121347</v>
+        <v>0.399838118390002</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.442853957941017</v>
+        <v>1.45926222236984</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.346185691061748</v>
+        <v>0.991972074436988</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.904071349713809</v>
+        <v>-0.584604365360195</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.53940288458698</v>
+        <v>-1.25902696931615</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.122139969116529</v>
+        <v>0.452830770055015</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.42425700847783</v>
+        <v>-0.0523616794425222</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.216807290458293</v>
+        <v>-0.0575229377671498</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.994738629095373</v>
+        <v>1.23958678532545</v>
       </c>
       <c r="CL2" t="n">
-        <v>-1.36798500942859</v>
+        <v>0.521691451320323</v>
       </c>
       <c r="CM2" t="n">
-        <v>-1.59675049673533</v>
+        <v>-0.0563466236292218</v>
       </c>
       <c r="CN2" t="n">
-        <v>-1.19475829375082</v>
+        <v>0.739486535982623</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.494158944145958</v>
+        <v>-0.587569615069779</v>
       </c>
       <c r="CP2" t="n">
-        <v>-1.42616816151528</v>
+        <v>-0.532658759791623</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.795643789056782</v>
+        <v>0.47721707498658</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.787316129610525</v>
+        <v>0.029031518093742</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0376922242265233</v>
+        <v>0.0041697202390883</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.788624296031146</v>
+        <v>0.814218784207569</v>
       </c>
       <c r="CU2" t="n">
-        <v>-1.86992813710511</v>
+        <v>1.84102242934306</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.522248893031544</v>
+        <v>-0.467895389213664</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.294351669560775</v>
+        <v>-0.685827863734842</v>
       </c>
       <c r="CX2" t="n">
-        <v>-1.15220203238337</v>
+        <v>-0.631197828491422</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.0409467406706916</v>
+        <v>1.35073539348106</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-1.51186434365942</v>
+        <v>-0.294328726029021</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.208789040924852</v>
+        <v>-1.24422908515985</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.206231321839227</v>
+        <v>1.18849607638825</v>
       </c>
       <c r="DC2" t="n">
-        <v>-1.4954404002293</v>
+        <v>0.868127843503549</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.313795420895347</v>
+        <v>-0.78466913808576</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.61187462682739</v>
+        <v>0.593103984975941</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.355938493439308</v>
+        <v>0.538357078424388</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.338299095987042</v>
+        <v>0.551646325989714</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.533266290408314</v>
+        <v>-0.479874146419777</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.75641296123473</v>
+        <v>-1.98767654309612</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.0428114250777267</v>
+        <v>1.34072727775377</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.509716318017013</v>
+        <v>0.943324826601835</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.56165131145983</v>
+        <v>0.48855040061989</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.227166553985611</v>
+        <v>-2.24996088429111</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.412271455365555</v>
+        <v>0.0501678359312689</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.61268977754043</v>
+        <v>-1.61832573534918</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.01974841256834</v>
+        <v>-0.535343526977339</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.6416875389376</v>
+        <v>-0.356754873838597</v>
       </c>
       <c r="DR2" t="n">
-        <v>1.27023746645909</v>
+        <v>0.528694552408586</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.292876752681592</v>
+        <v>0.664967415074657</v>
       </c>
       <c r="DT2" t="n">
-        <v>2.11416084723188</v>
+        <v>1.4617681838639</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.232314683638115</v>
+        <v>0.773737293374691</v>
       </c>
       <c r="DV2" t="n">
-        <v>1.86779869927139</v>
+        <v>-0.733154625060869</v>
       </c>
       <c r="DW2" t="n">
-        <v>-1.05662466795264</v>
+        <v>-0.0662446424251969</v>
       </c>
       <c r="DX2" t="n">
-        <v>3.21064650036004</v>
+        <v>-0.457867936423454</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.863214434568165</v>
+        <v>0.455471482348699</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.399640197972389</v>
+        <v>0.070753820349313</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.70782339839279</v>
+        <v>1.14953675441496</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.554226821550625</v>
+        <v>-0.378921898391454</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.01730033140234</v>
+        <v>-0.200282858741602</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.771347240054737</v>
+        <v>-0.0734958521420972</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.285404922285631</v>
+        <v>-0.166783259339388</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.357803171561405</v>
+        <v>0.566289692347315</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.320352755868402</v>
+        <v>0.453331948049547</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.887881736391562</v>
+        <v>0.184997392081908</v>
       </c>
       <c r="EI2" t="n">
-        <v>1.30128026703737</v>
+        <v>0.879651505070225</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.556111979337062</v>
+        <v>-0.737167055455972</v>
       </c>
       <c r="EK2" t="n">
-        <v>-1.8188058808208</v>
+        <v>-0.927025672542277</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.680386777766423</v>
+        <v>-3.05108093466511</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.316523934363371</v>
+        <v>0.0902556104418179</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.824457674594351</v>
+        <v>0.241001625692797</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.453789642911308</v>
+        <v>-0.297115703042795</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.117295510615109</v>
+        <v>1.01422339855413</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.277450533281245</v>
+        <v>1.51650483653275</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.106728279402977</v>
+        <v>-0.625427952593609</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.900444853792816</v>
+        <v>-0.329861605619229</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.00770837196453</v>
+        <v>-0.318757872428816</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.17773321099751</v>
+        <v>0.575741005936946</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.53332145089798</v>
+        <v>-1.22014810542461</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.00543147009467279</v>
+        <v>-0.657658172708286</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.596562629859382</v>
+        <v>-1.16494803825474</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.193247070186299</v>
+        <v>-0.480380691084589</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.779359000293127</v>
+        <v>0.88647367818299</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.743866035810625</v>
+        <v>0.895498340777162</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.598169028003321</v>
+        <v>1.90025116074659</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.584795465772469</v>
+        <v>-0.890160917685394</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.329020522128149</v>
+        <v>1.20202824386353</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.375061960894217</v>
+        <v>0.493310479735781</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.707704490532328</v>
+        <v>-0.183238654351896</v>
       </c>
       <c r="FG2" t="n">
-        <v>2.11172705901896</v>
+        <v>0.755780057334325</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.480165004836316</v>
+        <v>-0.386969247483468</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.253065564365451</v>
+        <v>1.70892913805564</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.223418283321764</v>
+        <v>0.77544996800015</v>
       </c>
       <c r="FK2" t="n">
         <v>1</v>
       </c>
       <c r="FL2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
@@ -1964,22 +1982,22 @@
         <v>1</v>
       </c>
       <c r="FP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ2" t="n">
         <v>0</v>
       </c>
-      <c r="FQ2" t="n">
+      <c r="FR2" t="n">
         <v>1</v>
       </c>
-      <c r="FR2" t="n">
+      <c r="FS2" t="n">
         <v>0</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>1</v>
       </c>
       <c r="FT2" t="n">
         <v>0</v>
       </c>
       <c r="FU2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV2" t="n">
         <v>0</v>
@@ -1988,18 +2006,27 @@
         <v>0</v>
       </c>
       <c r="FX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA2" t="n">
         <v>0</v>
       </c>
-      <c r="FY2" t="n">
+      <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
         <v>0</v>
       </c>
-      <c r="FZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA2" t="n">
+      <c r="GD2" t="n">
         <v>1</v>
       </c>
-      <c r="GB2" t="n">
+      <c r="GE2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/file_checks/wrong_genes_correct_pheno.xlsx
+++ b/file_checks/wrong_genes_correct_pheno.xlsx
@@ -1469,508 +1469,508 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.09278756596076</v>
+        <v>1.1489753838802</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.03114930204505</v>
+        <v>-1.37938829431153</v>
       </c>
       <c r="C2" t="n">
-        <v>1.18814503860037</v>
+        <v>-1.2675945557517</v>
       </c>
       <c r="D2" t="n">
-        <v>0.860013501905441</v>
+        <v>0.590229362443385</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.72640564172528</v>
+        <v>-0.326223825765369</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.420068484767343</v>
+        <v>0.0844584841358632</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.04923107382406</v>
+        <v>1.71097271176356</v>
       </c>
       <c r="H2" t="n">
-        <v>0.623197675607319</v>
+        <v>1.52152340317682</v>
       </c>
       <c r="I2" t="n">
-        <v>1.11536547045629</v>
+        <v>-1.37240034844976</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.59470556862541</v>
+        <v>0.136161721501814</v>
       </c>
       <c r="K2" t="n">
-        <v>1.10793925737275</v>
+        <v>-0.493324131866604</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.576206750806436</v>
+        <v>3.03532273084517</v>
       </c>
       <c r="M2" t="n">
-        <v>0.573069240468914</v>
+        <v>0.356316996638298</v>
       </c>
       <c r="N2" t="n">
-        <v>2.253483950511</v>
+        <v>0.696680579848869</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.87790369984366</v>
+        <v>0.276352284205353</v>
       </c>
       <c r="P2" t="n">
-        <v>2.48669556417133</v>
+        <v>-1.07699724756542</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.219938535230084</v>
+        <v>-1.64140354022014</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.77289957575232</v>
+        <v>1.79695128851035</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.312875954827684</v>
+        <v>1.07372582708249</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.84637326539643</v>
+        <v>-0.733457721691776</v>
       </c>
       <c r="U2" t="n">
-        <v>0.822837327857609</v>
+        <v>1.78821356770735</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.541817121210499</v>
+        <v>0.649361782881329</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.72747133592263</v>
+        <v>-1.06036505504446</v>
       </c>
       <c r="X2" t="n">
-        <v>0.251939600792465</v>
+        <v>1.31797191462107</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.255332356171896</v>
+        <v>-1.67372482769875</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.87582026720662</v>
+        <v>0.515331513643278</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.570499371547365</v>
+        <v>-0.327210464928064</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.113282189547741</v>
+        <v>-1.67286806048074</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.846849679560297</v>
+        <v>0.544678151219679</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.482797323615461</v>
+        <v>0.398917033383073</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.812494648705245</v>
+        <v>-0.597489480753309</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.40330512201676</v>
+        <v>-1.0517269473283</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.614431750948864</v>
+        <v>-0.605415673207005</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.392225586351708</v>
+        <v>0.129839834942053</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.403950340979636</v>
+        <v>-0.724286964217349</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-2.39439197493722</v>
+        <v>-1.45839610974733</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.30835174018119</v>
+        <v>0.476370372988172</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.925093582237573</v>
+        <v>-0.699908345811346</v>
       </c>
       <c r="AM2" t="n">
-        <v>2.17554687039174</v>
+        <v>-1.44126290194885</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.05099812483921</v>
+        <v>-0.471569889550766</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.794858031279128</v>
+        <v>-0.419119301293867</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.795230478414764</v>
+        <v>1.04327133046464</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.63855151630473</v>
+        <v>1.16937135602349</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.657355798598447</v>
+        <v>0.137084276251863</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.0496339604475049</v>
+        <v>2.13427758813228</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.667139314510399</v>
+        <v>0.108931263367539</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.289970880799212</v>
+        <v>1.07297815141586</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.34291479702044</v>
+        <v>-1.30212660926246</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0506639408382172</v>
+        <v>-0.200157720649752</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.907313002438979</v>
+        <v>-1.51387972891053</v>
       </c>
       <c r="AY2" t="n">
-        <v>-1.44715093342302</v>
+        <v>0.641653600444889</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.323660091291459</v>
+        <v>0.672353813271499</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.974489742768565</v>
+        <v>1.94986574430969</v>
       </c>
       <c r="BB2" t="n">
-        <v>-1.15257911085413</v>
+        <v>0.361861837943756</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.437331206481846</v>
+        <v>-1.11452525710047</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.781667588335054</v>
+        <v>-2.09518620815422</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.789572311573727</v>
+        <v>-1.85359129796309</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.67205649918639</v>
+        <v>1.46810788355682</v>
       </c>
       <c r="BG2" t="n">
-        <v>-1.68667089555936</v>
+        <v>0.932382022145864</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.58049456257666</v>
+        <v>0.730423996609386</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.453765859237855</v>
+        <v>-0.837005321589799</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.26353810737256</v>
+        <v>0.398044036168125</v>
       </c>
       <c r="BK2" t="n">
-        <v>-1.0417898372853</v>
+        <v>1.52592241061691</v>
       </c>
       <c r="BL2" t="n">
-        <v>-1.58229929438874</v>
+        <v>-2.12056534520065</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.913695008266694</v>
+        <v>-0.338264126626638</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.57742568983781</v>
+        <v>0.121986821873246</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.045995963143378</v>
+        <v>-0.518633578594712</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.784957388607212</v>
+        <v>-0.794736527808616</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.557215341638669</v>
+        <v>0.761940517376594</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.44077411409069</v>
+        <v>0.289852771583877</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.46933132503381</v>
+        <v>0.267281407140009</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.04893569266808</v>
+        <v>-0.244644036993233</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.718624548686569</v>
+        <v>0.915839011033609</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.61086016666886</v>
+        <v>-0.920397254218102</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.59524582615503</v>
+        <v>-0.507509799686379</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.033745701612846</v>
+        <v>0.642171386685919</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.679358366539592</v>
+        <v>-1.05408763972088</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.16446498612395</v>
+        <v>-0.629633336625437</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.0489270149532421</v>
+        <v>-0.152605452182317</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.317816636851938</v>
+        <v>-0.213187086074893</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.399838118390002</v>
+        <v>0.154962947930476</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.45926222236984</v>
+        <v>-0.0716758508521214</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.991972074436988</v>
+        <v>0.917462123179227</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.584604365360195</v>
+        <v>1.13690302044569</v>
       </c>
       <c r="CG2" t="n">
-        <v>-1.25902696931615</v>
+        <v>-0.0808682115482355</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.452830770055015</v>
+        <v>-0.892718120137644</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.0523616794425222</v>
+        <v>-0.825908541145943</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.0575229377671498</v>
+        <v>-0.0316092659048943</v>
       </c>
       <c r="CK2" t="n">
-        <v>1.23958678532545</v>
+        <v>-1.4468893332702</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.521691451320323</v>
+        <v>1.53445452316258</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.0563466236292218</v>
+        <v>0.790723036896835</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.739486535982623</v>
+        <v>-1.1686994988759</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.587569615069779</v>
+        <v>-0.311042657363058</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.532658759791623</v>
+        <v>0.554339585809058</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.47721707498658</v>
+        <v>-0.263477496691155</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.029031518093742</v>
+        <v>-0.609726474197587</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0041697202390883</v>
+        <v>-1.17262499500043</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.814218784207569</v>
+        <v>0.953632722382922</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.84102242934306</v>
+        <v>-0.00191166669598904</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.467895389213664</v>
+        <v>-0.120587563595399</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.685827863734842</v>
+        <v>-0.429369573810822</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.631197828491422</v>
+        <v>0.123481114804108</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.35073539348106</v>
+        <v>0.856410469241272</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.294328726029021</v>
+        <v>0.929247181842634</v>
       </c>
       <c r="DA2" t="n">
-        <v>-1.24422908515985</v>
+        <v>0.0758812981365777</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.18849607638825</v>
+        <v>-0.697360125827045</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.868127843503549</v>
+        <v>0.129456281398076</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.78466913808576</v>
+        <v>-2.12792567093354</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.593103984975941</v>
+        <v>0.721231828574136</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.538357078424388</v>
+        <v>0.479915025855471</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.551646325989714</v>
+        <v>2.54491804232903</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.479874146419777</v>
+        <v>0.059617839762596</v>
       </c>
       <c r="DI2" t="n">
-        <v>-1.98767654309612</v>
+        <v>0.743419347058306</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.34072727775377</v>
+        <v>0.0564600814019952</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.943324826601835</v>
+        <v>-0.925063197555471</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.48855040061989</v>
+        <v>0.250889159430088</v>
       </c>
       <c r="DM2" t="n">
-        <v>-2.24996088429111</v>
+        <v>0.28824814346405</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0501678359312689</v>
+        <v>0.614952706366554</v>
       </c>
       <c r="DO2" t="n">
-        <v>-1.61832573534918</v>
+        <v>-0.316511591069164</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.535343526977339</v>
+        <v>-0.591150660292834</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.356754873838597</v>
+        <v>0.801515859005327</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.528694552408586</v>
+        <v>0.139383064430772</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.664967415074657</v>
+        <v>-0.594688517918133</v>
       </c>
       <c r="DT2" t="n">
-        <v>1.4617681838639</v>
+        <v>0.177540810356784</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.773737293374691</v>
+        <v>0.770029102865104</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.733154625060869</v>
+        <v>-0.883961827002777</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.0662446424251969</v>
+        <v>-0.416900532459684</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.457867936423454</v>
+        <v>-0.611796538472167</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.455471482348699</v>
+        <v>0.5682826270606</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.070753820349313</v>
+        <v>-0.0266716627779137</v>
       </c>
       <c r="EA2" t="n">
-        <v>1.14953675441496</v>
+        <v>-1.17986984146455</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.378921898391454</v>
+        <v>0.624032135051158</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.200282858741602</v>
+        <v>0.484593295893491</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.0734958521420972</v>
+        <v>-1.67921714206112</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.166783259339388</v>
+        <v>0.929800085983101</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.566289692347315</v>
+        <v>-0.900999067332182</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.453331948049547</v>
+        <v>-1.09395622953471</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.184997392081908</v>
+        <v>-0.820524629445527</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.879651505070225</v>
+        <v>-0.503179455961267</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.737167055455972</v>
+        <v>0.656565910362366</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.927025672542277</v>
+        <v>-2.31788653295615</v>
       </c>
       <c r="EL2" t="n">
-        <v>-3.05108093466511</v>
+        <v>0.833152510607662</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0902556104418179</v>
+        <v>1.12049414039096</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.241001625692797</v>
+        <v>-0.0997121170161639</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.297115703042795</v>
+        <v>-0.0119818045457095</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.01422339855413</v>
+        <v>-1.67786061112332</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.51650483653275</v>
+        <v>0.0938694638081832</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.625427952593609</v>
+        <v>0.502302724668992</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.329861605619229</v>
+        <v>1.82952887859979</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.318757872428816</v>
+        <v>1.39532270473098</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.575741005936946</v>
+        <v>0.504088971941355</v>
       </c>
       <c r="EV2" t="n">
-        <v>-1.22014810542461</v>
+        <v>0.872712914826222</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.657658172708286</v>
+        <v>-1.79529582189626</v>
       </c>
       <c r="EX2" t="n">
-        <v>-1.16494803825474</v>
+        <v>-0.219849495583277</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.480380691084589</v>
+        <v>-0.0170858367942549</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.88647367818299</v>
+        <v>-0.531452089017097</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.895498340777162</v>
+        <v>-0.544994711526229</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.90025116074659</v>
+        <v>1.66323614510795</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.890160917685394</v>
+        <v>0.270447016517885</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.20202824386353</v>
+        <v>1.33087791638017</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.493310479735781</v>
+        <v>-1.01786048054625</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.183238654351896</v>
+        <v>0.125071498874229</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.755780057334325</v>
+        <v>1.45873064997576</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.386969247483468</v>
+        <v>0.657051678535151</v>
       </c>
       <c r="FI2" t="n">
-        <v>1.70892913805564</v>
+        <v>-0.0935180014667123</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.77544996800015</v>
+        <v>0.120948671162277</v>
       </c>
       <c r="FK2" t="n">
         <v>1</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="FO2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FP2" t="n">
         <v>1</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="FR2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FS2" t="n">
         <v>0</v>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="FU2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="FX2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
         <v>1</v>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GC2" t="n">
         <v>0</v>
